--- a/File/기능정의서_20251028.xlsx
+++ b/File/기능정의서_20251028.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sales\Desktop\LoadTest\File\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sales\Desktop\LoadTest\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B5CC64-3270-4A99-BE04-10548E752B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0079872E-7E66-4476-91CA-66F953135ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EB6CD500-D3D1-0744-87D1-B5AADE69A435}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB6CD500-D3D1-0744-87D1-B5AADE69A435}"/>
   </bookViews>
   <sheets>
-    <sheet name="기능정의서(사용자, 관리자)" sheetId="10" r:id="rId1"/>
+    <sheet name="Test" sheetId="10" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="108">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,20 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Google 로그인 
-버튼 선택 시 Google 로그인 프로세스 진행 
- - (신규 회원) 회원가입 프로세스 진행 
- - (기존 회원) 로그인 처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Apple 로그인 
-버튼 선택 시 Apple 로그인 프로세스 진행 
- - (신규 회원) 회원가입 프로세스 진행 
- - (기존 회원) 로그인 처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Page ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -93,10 +79,6 @@
     <t>5Depth</t>
   </si>
   <si>
-    <t xml:space="preserve">        </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Target</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,12 +105,6 @@
     <t>전압/전류 설정</t>
   </si>
   <si>
-    <t>보호 기능</t>
-  </si>
-  <si>
-    <t>응답/제어 모드</t>
-  </si>
-  <si>
     <t>통신 설정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,13 +138,6 @@
     <t>전류 보호 설정/활성화</t>
   </si>
   <si>
-    <t>저항/부하 설정</t>
-  </si>
-  <si>
-    <t>저항 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전력 측정</t>
   </si>
   <si>
@@ -194,10 +163,6 @@
     <t>트랜지언트 기능</t>
   </si>
   <si>
-    <t>트랜지언트 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>트랜지언트 레벨/시간 설정</t>
   </si>
   <si>
@@ -220,12 +185,6 @@
     <t>전압/전류 제어 모드</t>
   </si>
   <si>
-    <t>블리더 회로 모드</t>
-  </si>
-  <si>
-    <t>리스트/스텝 모드</t>
-  </si>
-  <si>
     <t>리스트 모드 켜기/끄기</t>
   </si>
   <si>
@@ -233,19 +192,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>시스템 설정</t>
-  </si>
-  <si>
-    <t>버튼/경고음 설정</t>
-  </si>
-  <si>
-    <t>DHCP/IP/Gateway/MAC 설정</t>
-  </si>
-  <si>
     <t>공장/기본 초기화</t>
-  </si>
-  <si>
-    <t>마스터-슬레이브 모드</t>
   </si>
   <si>
     <t>메인화면</t>
@@ -348,10 +295,6 @@
     <t>버튼으로 입력을 On/Off
 CC/CV/CR/CP 버튼을 누르면 모드 변경
 현재 설정되어있는 모드 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장비가 허용할수있는 범위의 전류/전압을 설정하고 조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -385,10 +328,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>허용 범위의 저항을 입력해서 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>입력된 전력을 측정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -397,24 +336,158 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>설정한 저항을 GUI에 표시
-범위를 넘기고 입력시 오류메시지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초기화 / 트리거 기능</t>
+    <t>출력 On/Off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전류, 전압을 설정하고 조회
+전력 측정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전압/전류/저항 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전류/전압/저항 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비가 허용할수있는 범위의
+전류/전압/저항을 설정하고 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPC 지연시간 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보호 기능(OPC)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트랜지언트 설정/활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펄스모드 트리거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시퀀스/리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리스트 ON/OFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리스트 편집/추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설정 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨/시간 입력, 모드 선택, 시작/중지 버튼
+트리거 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트랜션트 High/Low설정과 On/Off
+그래프와 실시간 상태를 표시
+트리거 버튼 선택시 트리거 작동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기화 / 현재 설정을 메모리에 저장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>초기화 버튼 선택시 모든 설정값 초기값으로 초기화
-트리거 버튼 선택시 트리거 작동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레벨/시간 입력, 모드 선택, 시작/중지 버튼</t>
-  </si>
-  <si>
-    <t>그래프와 실시간 상태를 표시</t>
+설정을 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리스트/스텝 모드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응답/제어 모드
+Slew Rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블리더 회로 모드
+ (전압 강제 하강)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설정한 전압/전류값에 도달하는 속도를 제어
+장비의 응답 모드를 변경
+출력 전압을 낮추는기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응답모드를 FAST/SLOPE 둘중에 하나로 선택 SLOPE모드에서만 Slew Rate 설정가능
+Slew Rate 전압/전류값 과 시간을 설정
+블리더 회로모드 ON/OFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보호 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설정된 값의 한계를 초과한 값이 출력될때 츨력을 차단
+CV/CC 어떤 모드를 우선으로 동작할지 결정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리스트모드 ON/OFF, 단계설정
+스텝 전류/전압 설정
+스텝 실행 시간 설정
+리스트 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택된 채널의 리스트 총 스텝 수를 설정
+선택된 채널의 지정된 스탭 번호에 대한 전압/전류/실행시간 값 설정
+현재 구성된 리스트를 지정된 번호의 메모리에 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스텝 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스텝간 Slew Rate 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리스트모드 ON/OFF, 단계설정,
+스텝 전압/전류 설정
+스텝 실행/지연 시간 설정
+스텝 사이클/스탭 Slew 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택된 채널의 리스트 총 스텝 수를 설정
+선택된 채널의 지정된 스탭 번호에 대한 전압/전류/실행시간/지연시간 값 설정
+리스트의 스텝 반복 싸이클/스탭 Slew를 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템의 버튼/경고음 설정
+통신설정의 DHCP, IP, 서브넷 마스크, 게이트웨이, MAC주소, GPIB주소 설정
+공장/기본 초기화 마스터-슬레이브모드 설정
+측정 평균 설정
+슬레이브 버전 조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -937,7 +1010,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -968,27 +1041,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -998,9 +1050,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1013,15 +1062,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1040,8 +1083,38 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1055,86 +1128,89 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1452,8 +1528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEACDCD0-2E40-C64C-8F9D-579EEC313332}">
   <dimension ref="B2:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -1479,48 +1555,48 @@
   <sheetData>
     <row r="2" spans="2:13" ht="30">
       <c r="B2" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:13">
       <c r="B3" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:13">
       <c r="C4" s="4"/>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="11" t="s">
+      <c r="C5" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="40"/>
       <c r="M5" s="45" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:13" s="3" customFormat="1" ht="19.2">
-      <c r="B6" s="12"/>
-      <c r="C6" s="16"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="47"/>
       <c r="D6" s="5" t="s">
         <v>1</v>
       </c>
@@ -1534,12 +1610,12 @@
         <v>4</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
       <c r="K6" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>5</v>
@@ -1547,538 +1623,555 @@
       <c r="M6" s="45"/>
     </row>
     <row r="7" spans="2:13" ht="18" thickBot="1">
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="46"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="28"/>
     </row>
     <row r="8" spans="2:13" ht="34.950000000000003" customHeight="1">
-      <c r="B8" s="22">
+      <c r="B8" s="14">
         <v>1</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="24"/>
+        <v>46</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="16"/>
       <c r="I8" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="J8" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="L8" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="M8" s="51"/>
+        <v>56</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="M8" s="29"/>
     </row>
     <row r="9" spans="2:13" ht="34.950000000000003" customHeight="1">
-      <c r="B9" s="26">
+      <c r="B9" s="17">
         <v>2</v>
       </c>
       <c r="C9" s="36"/>
-      <c r="D9" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
+      <c r="D9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="J9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="M9" s="29"/>
+    </row>
+    <row r="10" spans="2:13" ht="34.950000000000003" customHeight="1" thickBot="1">
+      <c r="B10" s="18">
+        <v>3</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" s="29"/>
+    </row>
+    <row r="11" spans="2:13" ht="46.8">
+      <c r="B11" s="14">
+        <v>2</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="K9" s="60" t="s">
-        <v>81</v>
-      </c>
-      <c r="L9" s="61" t="s">
+      <c r="K11" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="M11" s="29"/>
+    </row>
+    <row r="12" spans="2:13" ht="34.950000000000003" customHeight="1">
+      <c r="B12" s="17">
+        <v>3</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="D12" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="M9" s="51"/>
-    </row>
-    <row r="10" spans="2:13" ht="34.950000000000003" customHeight="1" thickBot="1">
-      <c r="B10" s="28">
-        <v>3</v>
-      </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="J10" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="K10" s="62" t="s">
+      <c r="E12" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="L10" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="M10" s="51"/>
-    </row>
-    <row r="11" spans="2:13" ht="46.8">
-      <c r="B11" s="22">
-        <v>2</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="J11" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="K11" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="L11" s="59" t="s">
-        <v>83</v>
-      </c>
-      <c r="M11" s="51"/>
-    </row>
-    <row r="12" spans="2:13" ht="34.950000000000003" customHeight="1">
-      <c r="B12" s="26">
-        <v>3</v>
-      </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>31</v>
+      <c r="F12" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="K12" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="L12" s="61"/>
-      <c r="M12" s="51"/>
+        <v>60</v>
+      </c>
+      <c r="K12" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="L12" s="51"/>
+      <c r="M12" s="29"/>
     </row>
     <row r="13" spans="2:13" ht="34.950000000000003" customHeight="1">
-      <c r="B13" s="26">
+      <c r="B13" s="17">
         <v>4</v>
       </c>
       <c r="C13" s="36"/>
-      <c r="D13" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="8"/>
+      <c r="D13" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="K13" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="M13" s="29"/>
+    </row>
+    <row r="14" spans="2:13" ht="62.4">
+      <c r="B14" s="17">
+        <v>5</v>
+      </c>
+      <c r="C14" s="36"/>
+      <c r="D14" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="L13" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="M13" s="51"/>
-    </row>
-    <row r="14" spans="2:13" ht="34.950000000000003" customHeight="1">
-      <c r="B14" s="26">
-        <v>5</v>
-      </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="8"/>
+      <c r="E14" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>87</v>
+      </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="K14" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="L14" s="61" t="s">
-        <v>92</v>
-      </c>
-      <c r="M14" s="51"/>
+        <v>60</v>
+      </c>
+      <c r="K14" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="L14" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="M14" s="29"/>
     </row>
     <row r="15" spans="2:13" ht="34.950000000000003" customHeight="1">
-      <c r="B15" s="26">
+      <c r="B15" s="17">
         <v>6</v>
       </c>
       <c r="C15" s="36"/>
       <c r="D15" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="J15" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K15" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="K15" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="L15" s="61" t="s">
-        <v>91</v>
-      </c>
-      <c r="M15" s="51"/>
+      <c r="L15" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="M15" s="29"/>
     </row>
     <row r="16" spans="2:13" ht="34.950000000000003" customHeight="1">
-      <c r="B16" s="26">
+      <c r="B16" s="17">
         <v>7</v>
       </c>
       <c r="C16" s="36"/>
-      <c r="D16" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="8"/>
+      <c r="D16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>88</v>
+      </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="K16" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="61" t="s">
-        <v>94</v>
-      </c>
-      <c r="M16" s="51"/>
+        <v>60</v>
+      </c>
+      <c r="K16" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="M16" s="29"/>
     </row>
     <row r="17" spans="2:13" ht="34.950000000000003" customHeight="1">
-      <c r="B17" s="26">
+      <c r="B17" s="17">
         <v>8</v>
       </c>
       <c r="C17" s="36"/>
-      <c r="D17" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>41</v>
+      <c r="D17" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="K17" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="L17" s="61"/>
-      <c r="M17" s="51"/>
-    </row>
-    <row r="18" spans="2:13" ht="34.950000000000003" customHeight="1" thickBot="1">
-      <c r="B18" s="32">
+        <v>60</v>
+      </c>
+      <c r="K17" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="L17" s="51"/>
+      <c r="M17" s="29"/>
+    </row>
+    <row r="18" spans="2:13" ht="47.4" thickBot="1">
+      <c r="B18" s="22">
         <v>9</v>
       </c>
       <c r="C18" s="36"/>
-      <c r="D18" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="9"/>
+      <c r="D18" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="H18" s="9"/>
-      <c r="I18" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="J18" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="K18" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="L18" s="65" t="s">
-        <v>96</v>
-      </c>
-      <c r="M18" s="51"/>
+      <c r="I18" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K18" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="L18" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="M18" s="29"/>
     </row>
     <row r="19" spans="2:13" ht="34.950000000000003" customHeight="1">
-      <c r="B19" s="22">
+      <c r="B19" s="14">
         <v>1</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="J19" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="K19" s="47"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="51"/>
+        <v>54</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="K19" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="L19" s="60"/>
+      <c r="M19" s="29"/>
     </row>
     <row r="20" spans="2:13" ht="34.950000000000003" customHeight="1">
-      <c r="B20" s="26">
+      <c r="B20" s="17">
         <v>2</v>
       </c>
       <c r="C20" s="36"/>
-      <c r="D20" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>35</v>
+      <c r="D20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="K20" s="48"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="51"/>
+        <v>61</v>
+      </c>
+      <c r="K20" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="L20" s="62"/>
+      <c r="M20" s="29"/>
     </row>
     <row r="21" spans="2:13" ht="34.950000000000003" customHeight="1">
-      <c r="B21" s="26">
+      <c r="B21" s="17">
         <v>3</v>
       </c>
       <c r="C21" s="36"/>
-      <c r="D21" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>48</v>
+      <c r="D21" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="K21" s="48"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="51"/>
-    </row>
-    <row r="22" spans="2:13" ht="34.950000000000003" customHeight="1">
-      <c r="B22" s="26">
+        <v>61</v>
+      </c>
+      <c r="K21" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="L21" s="62"/>
+      <c r="M21" s="29"/>
+    </row>
+    <row r="22" spans="2:13" ht="46.8">
+      <c r="B22" s="17">
         <v>4</v>
       </c>
       <c r="C22" s="36"/>
-      <c r="D22" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>51</v>
+      <c r="D22" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K22" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="L22" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="M22" s="29"/>
+    </row>
+    <row r="23" spans="2:13" ht="62.4">
+      <c r="B23" s="17">
+        <v>5</v>
+      </c>
+      <c r="C23" s="36"/>
+      <c r="D23" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K23" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="L23" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="M23" s="29"/>
+    </row>
+    <row r="24" spans="2:13" ht="94.2" thickBot="1">
+      <c r="B24" s="22">
+        <v>6</v>
+      </c>
+      <c r="C24" s="36"/>
+      <c r="D24" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="13"/>
+      <c r="I24" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="J24" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="K24" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="L24" s="64"/>
+      <c r="M24" s="29"/>
+    </row>
+    <row r="25" spans="2:13" ht="34.950000000000003" customHeight="1" thickBot="1">
+      <c r="B25" s="32">
+        <v>1</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="J25" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="K25" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="L25" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="J22" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="K22" s="48"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="51"/>
-    </row>
-    <row r="23" spans="2:13" ht="34.950000000000003" customHeight="1">
-      <c r="B23" s="26">
-        <v>5</v>
-      </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="K23" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="L23" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="M23" s="51"/>
-    </row>
-    <row r="24" spans="2:13" ht="34.950000000000003" customHeight="1" thickBot="1">
-      <c r="B24" s="32">
-        <v>6</v>
-      </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="I24" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="J24" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="K24" s="49"/>
-      <c r="L24" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="M24" s="51"/>
-    </row>
-    <row r="25" spans="2:13" ht="34.950000000000003" customHeight="1" thickBot="1">
-      <c r="B25" s="54">
-        <v>1</v>
-      </c>
-      <c r="C25" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="J25" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="K25" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="L25" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="M25" s="51"/>
+      <c r="M25" s="29"/>
     </row>
     <row r="26" spans="2:13">
       <c r="C26" s="1"/>
@@ -2130,6 +2223,8 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="C5:C6"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="C11:C18"/>
     <mergeCell ref="C19:C24"/>
@@ -2138,8 +2233,6 @@
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/File/기능정의서_20251028.xlsx
+++ b/File/기능정의서_20251028.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sales\Desktop\LoadTest\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0079872E-7E66-4476-91CA-66F953135ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9C9A03-5955-46D1-875D-52295B536460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB6CD500-D3D1-0744-87D1-B5AADE69A435}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="111">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -358,14 +358,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OPC 지연시간 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보호 기능(OPC)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>트랜지언트 설정/활성화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -488,6 +480,27 @@
 공장/기본 초기화 마스터-슬레이브모드 설정
 측정 평균 설정
 슬레이브 버전 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지연시간 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모니터링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로드/쏘스 각 장비
+측정값 그래프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비에 리턴받은 값을 차트로 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Livechart 라이브러리 사용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -618,7 +631,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1004,13 +1017,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1156,61 +1206,64 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1526,10 +1579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEACDCD0-2E40-C64C-8F9D-579EEC313332}">
-  <dimension ref="B2:M41"/>
+  <dimension ref="B2:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -1636,7 +1689,7 @@
       <c r="L7" s="27"/>
       <c r="M7" s="28"/>
     </row>
-    <row r="8" spans="2:13" ht="34.950000000000003" customHeight="1">
+    <row r="8" spans="2:13" ht="34.950000000000003" customHeight="1" thickBot="1">
       <c r="B8" s="14">
         <v>1</v>
       </c>
@@ -1666,137 +1719,135 @@
       </c>
       <c r="M8" s="29"/>
     </row>
-    <row r="9" spans="2:13" ht="34.950000000000003" customHeight="1">
-      <c r="B9" s="17">
+    <row r="9" spans="2:13" ht="39.6" customHeight="1">
+      <c r="B9" s="62"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" s="29"/>
+    </row>
+    <row r="10" spans="2:13" ht="44.4" customHeight="1">
+      <c r="B10" s="17">
         <v>2</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="10" t="s">
+      <c r="C10" s="36"/>
+      <c r="D10" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E10" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8" t="s">
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="K9" s="50" t="s">
+      <c r="K10" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="L9" s="51" t="s">
+      <c r="L10" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="M9" s="29"/>
-    </row>
-    <row r="10" spans="2:13" ht="34.950000000000003" customHeight="1" thickBot="1">
-      <c r="B10" s="18">
+      <c r="M10" s="29"/>
+    </row>
+    <row r="11" spans="2:13" ht="45.6" customHeight="1" thickBot="1">
+      <c r="B11" s="18">
         <v>3</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="19" t="s">
+      <c r="C11" s="37"/>
+      <c r="D11" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E11" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="12" t="s">
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J11" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="52" t="s">
+      <c r="K11" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="L10" s="53" t="s">
+      <c r="L11" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="M10" s="29"/>
-    </row>
-    <row r="11" spans="2:13" ht="46.8">
-      <c r="B11" s="14">
+      <c r="M11" s="29"/>
+    </row>
+    <row r="12" spans="2:13" ht="46.8">
+      <c r="B12" s="14">
         <v>2</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C12" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F12" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="26" t="s">
+      <c r="H12" s="16"/>
+      <c r="I12" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="J12" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="K11" s="54" t="s">
+      <c r="K12" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="L11" s="49" t="s">
+      <c r="L12" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="M11" s="29"/>
-    </row>
-    <row r="12" spans="2:13" ht="34.950000000000003" customHeight="1">
-      <c r="B12" s="17">
-        <v>3</v>
-      </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K12" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="L12" s="51"/>
       <c r="M12" s="29"/>
     </row>
     <row r="13" spans="2:13" ht="34.950000000000003" customHeight="1">
       <c r="B13" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" s="36"/>
-      <c r="D13" s="30" t="s">
-        <v>82</v>
+      <c r="D13" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -1806,27 +1857,25 @@
       <c r="J13" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="K13" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="L13" s="51" t="s">
-        <v>73</v>
-      </c>
+      <c r="K13" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="L13" s="51"/>
       <c r="M13" s="29"/>
     </row>
-    <row r="14" spans="2:13" ht="62.4">
+    <row r="14" spans="2:13" ht="34.950000000000003" customHeight="1">
       <c r="B14" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" s="36"/>
-      <c r="D14" s="10" t="s">
-        <v>85</v>
+      <c r="D14" s="30" t="s">
+        <v>97</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -1836,26 +1885,28 @@
       <c r="J14" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="K14" s="55" t="s">
-        <v>101</v>
+      <c r="K14" s="50" t="s">
+        <v>70</v>
       </c>
       <c r="L14" s="51" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="M14" s="29"/>
     </row>
-    <row r="15" spans="2:13" ht="34.950000000000003" customHeight="1">
+    <row r="15" spans="2:13" ht="62.4">
       <c r="B15" s="17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" s="36"/>
-      <c r="D15" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="8"/>
+      <c r="D15" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>85</v>
+      </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8" t="s">
@@ -1864,28 +1915,26 @@
       <c r="J15" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="K15" s="50" t="s">
-        <v>74</v>
+      <c r="K15" s="55" t="s">
+        <v>99</v>
       </c>
       <c r="L15" s="51" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="M15" s="29"/>
     </row>
     <row r="16" spans="2:13" ht="34.950000000000003" customHeight="1">
       <c r="B16" s="17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="36"/>
-      <c r="D16" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>88</v>
-      </c>
+      <c r="D16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8" t="s">
@@ -1895,25 +1944,27 @@
         <v>60</v>
       </c>
       <c r="K16" s="50" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="L16" s="51" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="M16" s="29"/>
     </row>
     <row r="17" spans="2:13" ht="34.950000000000003" customHeight="1">
       <c r="B17" s="17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" s="36"/>
       <c r="D17" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>86</v>
+      </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8" t="s">
@@ -1922,117 +1973,117 @@
       <c r="J17" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="K17" s="56" t="s">
+      <c r="K17" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="L17" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="M17" s="29"/>
+    </row>
+    <row r="18" spans="2:13" ht="34.950000000000003" customHeight="1">
+      <c r="B18" s="17">
+        <v>8</v>
+      </c>
+      <c r="C18" s="36"/>
+      <c r="D18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K18" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="L17" s="51"/>
-      <c r="M17" s="29"/>
-    </row>
-    <row r="18" spans="2:13" ht="47.4" thickBot="1">
-      <c r="B18" s="22">
+      <c r="L18" s="51"/>
+      <c r="M18" s="29"/>
+    </row>
+    <row r="19" spans="2:13" ht="47.4" thickBot="1">
+      <c r="B19" s="22">
         <v>9</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="31" t="s">
+      <c r="C19" s="36"/>
+      <c r="D19" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18" s="13" t="s">
+      <c r="E19" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="12" t="s">
+      <c r="G19" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="J19" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="K18" s="57" t="s">
-        <v>89</v>
-      </c>
-      <c r="L18" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="M18" s="29"/>
-    </row>
-    <row r="19" spans="2:13" ht="34.950000000000003" customHeight="1">
-      <c r="B19" s="14">
+      <c r="K19" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="L19" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="M19" s="29"/>
+    </row>
+    <row r="20" spans="2:13" ht="34.950000000000003" customHeight="1">
+      <c r="B20" s="14">
         <v>1</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C20" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D20" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E20" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="26" t="s">
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="J19" s="26" t="s">
+      <c r="J20" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="K19" s="59" t="s">
+      <c r="K20" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="L19" s="60"/>
-      <c r="M19" s="29"/>
-    </row>
-    <row r="20" spans="2:13" ht="34.950000000000003" customHeight="1">
-      <c r="B20" s="17">
-        <v>2</v>
-      </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="K20" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="L20" s="62"/>
+      <c r="L20" s="49"/>
       <c r="M20" s="29"/>
     </row>
     <row r="21" spans="2:13" ht="34.950000000000003" customHeight="1">
       <c r="B21" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" s="36"/>
-      <c r="D21" s="30" t="s">
-        <v>99</v>
+      <c r="D21" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="8"/>
+        <v>26</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="H21" s="8"/>
       <c r="I21" s="8" t="s">
         <v>58</v>
@@ -2040,29 +2091,27 @@
       <c r="J21" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="K21" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="L21" s="62"/>
+      <c r="K21" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="L21" s="51"/>
       <c r="M21" s="29"/>
     </row>
-    <row r="22" spans="2:13" ht="46.8">
+    <row r="22" spans="2:13" ht="34.950000000000003" customHeight="1">
       <c r="B22" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22" s="36"/>
-      <c r="D22" s="11" t="s">
-        <v>95</v>
+      <c r="D22" s="30" t="s">
+        <v>97</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>96</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8" t="s">
         <v>58</v>
@@ -2070,34 +2119,30 @@
       <c r="J22" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="K22" s="61" t="s">
-        <v>97</v>
-      </c>
-      <c r="L22" s="62" t="s">
+      <c r="K22" s="55" t="s">
         <v>98</v>
       </c>
+      <c r="L22" s="51"/>
       <c r="M22" s="29"/>
     </row>
-    <row r="23" spans="2:13" ht="62.4">
+    <row r="23" spans="2:13" ht="46.8">
       <c r="B23" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" s="36"/>
       <c r="D23" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E23" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="H23" s="8"/>
       <c r="I23" s="8" t="s">
         <v>58</v>
       </c>
@@ -2105,76 +2150,107 @@
         <v>61</v>
       </c>
       <c r="K23" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="L23" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="M23" s="29"/>
+    </row>
+    <row r="24" spans="2:13" ht="62.4">
+      <c r="B24" s="17">
+        <v>5</v>
+      </c>
+      <c r="C24" s="36"/>
+      <c r="D24" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K24" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="L24" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="M24" s="29"/>
+    </row>
+    <row r="25" spans="2:13" ht="94.2" thickBot="1">
+      <c r="B25" s="22">
+        <v>6</v>
+      </c>
+      <c r="C25" s="36"/>
+      <c r="D25" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="13"/>
+      <c r="I25" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="J25" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="K25" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="L23" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="M23" s="29"/>
-    </row>
-    <row r="24" spans="2:13" ht="94.2" thickBot="1">
-      <c r="B24" s="22">
-        <v>6</v>
-      </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24" s="13" t="s">
+      <c r="L25" s="58"/>
+      <c r="M25" s="29"/>
+    </row>
+    <row r="26" spans="2:13" ht="34.950000000000003" customHeight="1" thickBot="1">
+      <c r="B26" s="32">
+        <v>1</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="J24" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="K24" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="L24" s="64"/>
-      <c r="M24" s="29"/>
-    </row>
-    <row r="25" spans="2:13" ht="34.950000000000003" customHeight="1" thickBot="1">
-      <c r="B25" s="32">
-        <v>1</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="24" t="s">
+      <c r="E26" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="25" t="s">
+      <c r="F26" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="25" t="s">
+      <c r="G26" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24" t="s">
+      <c r="H26" s="24"/>
+      <c r="I26" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="J25" s="24" t="s">
+      <c r="J26" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="K25" s="65" t="s">
+      <c r="K26" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="L25" s="66" t="s">
+      <c r="L26" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="M25" s="29"/>
-    </row>
-    <row r="26" spans="2:13">
-      <c r="C26" s="1"/>
+      <c r="M26" s="29"/>
     </row>
     <row r="27" spans="2:13">
       <c r="C27" s="1"/>
@@ -2220,14 +2296,17 @@
     </row>
     <row r="41" spans="3:3">
       <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C18"/>
-    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="C12:C19"/>
+    <mergeCell ref="C20:C25"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="D5:H5"/>

--- a/File/기능정의서_20251028.xlsx
+++ b/File/기능정의서_20251028.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sales\Desktop\LoadTest\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sales\Desktop\LoadSource\File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9C9A03-5955-46D1-875D-52295B536460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE4693F-1E17-456F-A051-D67F050B5F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB6CD500-D3D1-0744-87D1-B5AADE69A435}"/>
   </bookViews>
@@ -225,20 +225,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Load
-(ARRAY 372x Series)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Source
-(SPS5000X Series)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Interface Connect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MainWindowView</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -501,6 +487,18 @@
   </si>
   <si>
     <t>Livechart 라이브러리 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로드설정화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쏘스설정화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연결화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -631,7 +629,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -824,21 +822,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1060,7 +1043,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1115,31 +1098,28 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1">
@@ -1157,27 +1137,96 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1195,75 +1244,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1581,8 +1561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEACDCD0-2E40-C64C-8F9D-579EEC313332}">
   <dimension ref="B2:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -1620,36 +1600,36 @@
       <c r="C4" s="4"/>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="41" t="s">
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="41" t="s">
+      <c r="J5" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="39" t="s">
+      <c r="K5" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="40"/>
-      <c r="M5" s="45" t="s">
+      <c r="L5" s="62"/>
+      <c r="M5" s="53" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:13" s="3" customFormat="1" ht="19.2">
-      <c r="B6" s="42"/>
-      <c r="C6" s="47"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="55"/>
       <c r="D6" s="5" t="s">
         <v>1</v>
       </c>
@@ -1665,35 +1645,35 @@
       <c r="H6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
       <c r="K6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="45"/>
+      <c r="M6" s="53"/>
     </row>
     <row r="7" spans="2:13" ht="18" thickBot="1">
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="28"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="27"/>
     </row>
     <row r="8" spans="2:13" ht="34.950000000000003" customHeight="1" thickBot="1">
       <c r="B8" s="14">
         <v>1</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="56" t="s">
         <v>46</v>
       </c>
       <c r="D8" s="16" t="s">
@@ -1706,50 +1686,52 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
       <c r="I8" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J8" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="48" t="s">
+      <c r="K8" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="L8" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="M8" s="29"/>
-    </row>
-    <row r="9" spans="2:13" ht="39.6" customHeight="1">
-      <c r="B9" s="62"/>
-      <c r="C9" s="63"/>
+      <c r="L8" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" s="28"/>
+    </row>
+    <row r="9" spans="2:13" ht="39.6" customHeight="1" thickBot="1">
+      <c r="B9" s="48">
+        <v>2</v>
+      </c>
+      <c r="C9" s="57"/>
       <c r="D9" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="E9" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
+        <v>104</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
       <c r="H9" s="12"/>
       <c r="I9" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="K9" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="L9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="M9" s="29"/>
+      <c r="K9" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" s="28"/>
     </row>
     <row r="10" spans="2:13" ht="44.4" customHeight="1">
-      <c r="B10" s="17">
-        <v>2</v>
-      </c>
-      <c r="C10" s="36"/>
+      <c r="B10" s="14">
+        <v>3</v>
+      </c>
+      <c r="C10" s="58"/>
       <c r="D10" s="10" t="s">
         <v>49</v>
       </c>
@@ -1760,53 +1742,53 @@
       <c r="G10" s="10"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="L10" s="51" t="s">
+      <c r="K10" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="M10" s="29"/>
+      <c r="L10" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="M10" s="28"/>
     </row>
     <row r="11" spans="2:13" ht="45.6" customHeight="1" thickBot="1">
-      <c r="B11" s="18">
-        <v>3</v>
-      </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="19" t="s">
+      <c r="B11" s="48">
+        <v>4</v>
+      </c>
+      <c r="C11" s="59"/>
+      <c r="D11" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
       <c r="I11" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="L11" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="M11" s="29"/>
+      <c r="K11" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="M11" s="28"/>
     </row>
     <row r="12" spans="2:13" ht="46.8">
       <c r="B12" s="14">
         <v>2</v>
       </c>
-      <c r="C12" s="38" t="s">
-        <v>53</v>
+      <c r="C12" s="60" t="s">
+        <v>108</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>16</v>
@@ -1821,30 +1803,30 @@
         <v>24</v>
       </c>
       <c r="H12" s="16"/>
-      <c r="I12" s="26" t="s">
+      <c r="I12" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="J12" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="K12" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="L12" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="M12" s="29"/>
+      <c r="K12" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="L12" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="M12" s="28"/>
     </row>
     <row r="13" spans="2:13" ht="34.950000000000003" customHeight="1">
       <c r="B13" s="17">
         <v>3</v>
       </c>
-      <c r="C13" s="36"/>
+      <c r="C13" s="58"/>
       <c r="D13" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>26</v>
@@ -1852,82 +1834,82 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="J13" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K13" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="L13" s="51"/>
-      <c r="M13" s="29"/>
+      <c r="K13" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="L13" s="37"/>
+      <c r="M13" s="28"/>
     </row>
     <row r="14" spans="2:13" ht="34.950000000000003" customHeight="1">
       <c r="B14" s="17">
         <v>4</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="30" t="s">
-        <v>97</v>
+      <c r="C14" s="58"/>
+      <c r="D14" s="29" t="s">
+        <v>94</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="J14" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K14" s="50" t="s">
+      <c r="K14" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="L14" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="L14" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="M14" s="29"/>
+      <c r="M14" s="28"/>
     </row>
     <row r="15" spans="2:13" ht="62.4">
       <c r="B15" s="17">
         <v>5</v>
       </c>
-      <c r="C15" s="36"/>
+      <c r="C15" s="58"/>
       <c r="D15" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="J15" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K15" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="L15" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="M15" s="29"/>
+      <c r="K15" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="L15" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="M15" s="28"/>
     </row>
     <row r="16" spans="2:13" ht="34.950000000000003" customHeight="1">
       <c r="B16" s="17">
         <v>6</v>
       </c>
-      <c r="C16" s="36"/>
+      <c r="C16" s="58"/>
       <c r="D16" s="8" t="s">
         <v>30</v>
       </c>
@@ -1938,24 +1920,24 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="J16" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K16" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="L16" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="M16" s="29"/>
+      <c r="K16" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="L16" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="M16" s="28"/>
     </row>
     <row r="17" spans="2:13" ht="34.950000000000003" customHeight="1">
       <c r="B17" s="17">
         <v>7</v>
       </c>
-      <c r="C17" s="36"/>
+      <c r="C17" s="58"/>
       <c r="D17" s="10" t="s">
         <v>31</v>
       </c>
@@ -1963,29 +1945,29 @@
         <v>32</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="J17" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K17" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="L17" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="M17" s="29"/>
+      <c r="K17" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="L17" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="M17" s="28"/>
     </row>
     <row r="18" spans="2:13" ht="34.950000000000003" customHeight="1">
       <c r="B18" s="17">
         <v>8</v>
       </c>
-      <c r="C18" s="36"/>
+      <c r="C18" s="58"/>
       <c r="D18" s="10" t="s">
         <v>33</v>
       </c>
@@ -1996,55 +1978,55 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="J18" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K18" s="56" t="s">
+      <c r="K18" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="L18" s="51"/>
-      <c r="M18" s="29"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="28"/>
     </row>
     <row r="19" spans="2:13" ht="47.4" thickBot="1">
-      <c r="B19" s="22">
+      <c r="B19" s="21">
         <v>9</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="31" t="s">
+      <c r="C19" s="58"/>
+      <c r="D19" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="23" t="s">
-        <v>81</v>
+      <c r="E19" s="22" t="s">
+        <v>78</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>36</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="J19" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="K19" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="L19" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="M19" s="29"/>
+      <c r="K19" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="L19" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="M19" s="28"/>
     </row>
     <row r="20" spans="2:13" ht="34.950000000000003" customHeight="1">
       <c r="B20" s="14">
         <v>1</v>
       </c>
-      <c r="C20" s="38" t="s">
-        <v>54</v>
+      <c r="C20" s="60" t="s">
+        <v>109</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>16</v>
@@ -2055,23 +2037,23 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="26" t="s">
+      <c r="I20" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="J20" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="K20" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="L20" s="49"/>
-      <c r="M20" s="29"/>
+      <c r="K20" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="L20" s="35"/>
+      <c r="M20" s="28"/>
     </row>
     <row r="21" spans="2:13" ht="34.950000000000003" customHeight="1">
       <c r="B21" s="17">
         <v>2</v>
       </c>
-      <c r="C21" s="36"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="10" t="s">
         <v>17</v>
       </c>
@@ -2086,24 +2068,24 @@
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J21" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="K21" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="L21" s="51"/>
-      <c r="M21" s="29"/>
+      <c r="K21" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="L21" s="37"/>
+      <c r="M21" s="28"/>
     </row>
     <row r="22" spans="2:13" ht="34.950000000000003" customHeight="1">
       <c r="B22" s="17">
         <v>3</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="30" t="s">
-        <v>97</v>
+      <c r="C22" s="58"/>
+      <c r="D22" s="29" t="s">
+        <v>94</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>39</v>
@@ -2114,24 +2096,24 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J22" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="K22" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="L22" s="51"/>
-      <c r="M22" s="29"/>
+      <c r="K22" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="L22" s="37"/>
+      <c r="M22" s="28"/>
     </row>
     <row r="23" spans="2:13" ht="46.8">
       <c r="B23" s="17">
         <v>4</v>
       </c>
-      <c r="C23" s="36"/>
+      <c r="C23" s="58"/>
       <c r="D23" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>41</v>
@@ -2140,30 +2122,30 @@
         <v>42</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J23" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J23" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="K23" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="L23" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="M23" s="29"/>
+      <c r="K23" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="L23" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="M23" s="28"/>
     </row>
     <row r="24" spans="2:13" ht="62.4">
       <c r="B24" s="17">
         <v>5</v>
       </c>
-      <c r="C24" s="36"/>
+      <c r="C24" s="58"/>
       <c r="D24" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>43</v>
@@ -2172,32 +2154,32 @@
         <v>44</v>
       </c>
       <c r="G24" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K24" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="L24" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="H24" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="K24" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="L24" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="M24" s="29"/>
+      <c r="M24" s="28"/>
     </row>
     <row r="25" spans="2:13" ht="94.2" thickBot="1">
-      <c r="B25" s="22">
+      <c r="B25" s="21">
         <v>6</v>
       </c>
-      <c r="C25" s="36"/>
+      <c r="C25" s="58"/>
       <c r="D25" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>18</v>
@@ -2206,51 +2188,51 @@
         <v>45</v>
       </c>
       <c r="H25" s="13"/>
-      <c r="I25" s="33" t="s">
+      <c r="I25" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="J25" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="J25" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="K25" s="59" t="s">
-        <v>105</v>
-      </c>
-      <c r="L25" s="58"/>
-      <c r="M25" s="29"/>
+      <c r="K25" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="L25" s="44"/>
+      <c r="M25" s="28"/>
     </row>
     <row r="26" spans="2:13" ht="34.950000000000003" customHeight="1" thickBot="1">
-      <c r="B26" s="32">
+      <c r="B26" s="31">
         <v>1</v>
       </c>
-      <c r="C26" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="24" t="s">
+      <c r="C26" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="E26" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="25" t="s">
+      <c r="F26" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="25" t="s">
+      <c r="G26" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24" t="s">
+      <c r="H26" s="23"/>
+      <c r="I26" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="J26" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="J26" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="K26" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="L26" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="M26" s="29"/>
+      <c r="K26" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="L26" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="M26" s="28"/>
     </row>
     <row r="27" spans="2:13">
       <c r="C27" s="1"/>
@@ -2302,16 +2284,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C8:C11"/>
     <mergeCell ref="C12:C19"/>
     <mergeCell ref="C20:C25"/>
     <mergeCell ref="K5:L5"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
